--- a/summaries/trials/seqRunControl/variantSummary.xlsx
+++ b/summaries/trials/seqRunControl/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -29,6 +29,24 @@
     <t xml:space="preserve">experiments</t>
   </si>
   <si>
+    <t xml:space="preserve">C28144T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S84L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C241T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intergenic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t xml:space="preserve">C1059T</t>
   </si>
   <si>
@@ -38,37 +56,70 @@
     <t xml:space="preserve">T265I</t>
   </si>
   <si>
-    <t xml:space="preserve">C28144T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S84L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C241T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intergenic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">C3037T</t>
   </si>
   <si>
     <t xml:space="preserve">silent</t>
   </si>
   <si>
+    <t xml:space="preserve">T8782C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14408T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P314L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T18060C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23403G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D614G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G1738T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2258A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V665I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4596A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1444N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5812T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6441G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2059R</t>
+  </si>
+  <si>
     <t xml:space="preserve">A7626G</t>
   </si>
   <si>
     <t xml:space="preserve">N2454S</t>
   </si>
   <si>
-    <t xml:space="preserve">T8782C</t>
+    <t xml:space="preserve">C8140T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A9204G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2980G</t>
   </si>
   <si>
     <t xml:space="preserve">T10665C</t>
@@ -83,28 +134,25 @@
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">C14408T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P314L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T18060C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18998T</t>
   </si>
   <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
-    <t xml:space="preserve">A23403G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D614G</t>
+    <t xml:space="preserve">A20268G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21575T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23202A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T547K</t>
   </si>
   <si>
     <t xml:space="preserve">G25563T</t>
@@ -114,6 +162,27 @@
   </si>
   <si>
     <t xml:space="preserve">Q57H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28854T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29384T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D371Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
   </si>
 </sst>
 </file>
@@ -464,7 +533,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1059</v>
+        <v>28144</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -476,12 +545,12 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>28144</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -498,7 +567,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>241</v>
+        <v>1059</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -510,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -521,95 +590,95 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7626</v>
+        <v>8782</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8782</v>
+        <v>14408</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10665</v>
+        <v>18060</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11916</v>
+        <v>23403</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14408</v>
+        <v>1738</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -617,16 +686,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18060</v>
+        <v>2258</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -634,13 +703,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>18998</v>
+        <v>4596</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -651,16 +720,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>23403</v>
+        <v>5812</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -668,18 +737,239 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7626</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8140</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10665</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11916</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18998</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20268</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21575</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>25563</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>28854</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29384</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29445</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/summaries/trials/seqRunControl/variantSummary.xlsx
+++ b/summaries/trials/seqRunControl/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -74,12 +74,12 @@
     <t xml:space="preserve">D614G</t>
   </si>
   <si>
+    <t xml:space="preserve">C913T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3037T</t>
   </si>
   <si>
-    <t xml:space="preserve">C913T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C5388A</t>
   </si>
   <si>
@@ -113,81 +113,81 @@
     <t xml:space="preserve">R52I</t>
   </si>
   <si>
+    <t xml:space="preserve">C3267T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1001I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14120T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P218L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C14676T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATACATGT21765delTACATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTATTA21991delTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A23063T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N501Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23271A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A570D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23709T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T716I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24506G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S982A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27972T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28111G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y73C</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAAAA28271delA</t>
   </si>
   <si>
     <t xml:space="preserve">del 1</t>
   </si>
   <si>
-    <t xml:space="preserve">C3267T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1001I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTCTGGTTTT11288delTCTGGTTTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14120T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P218L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14676T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATACATGT21765delTACATG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTTATTA21991delTTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A23063T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N501Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23271A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A570D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23709T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T716I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T24506G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S982A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27972T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q27*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A28111G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y73C</t>
-  </si>
-  <si>
     <t xml:space="preserve">G28280C</t>
   </si>
   <si>
@@ -203,6 +203,42 @@
     <t xml:space="preserve">T28282A</t>
   </si>
   <si>
+    <t xml:space="preserve">C1059T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T265I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2110T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2189T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L642F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6954C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I2230T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19151T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1895V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G22111A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A28095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K68*</t>
+  </si>
+  <si>
     <t xml:space="preserve">G28881A</t>
   </si>
   <si>
@@ -218,45 +254,6 @@
     <t xml:space="preserve">G204R</t>
   </si>
   <si>
-    <t xml:space="preserve">C1059T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T265I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2110T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2189T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L642F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T6954C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I2230T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19151T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A1895V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G22111A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A28095T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K68*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4795T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C4999T</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t xml:space="preserve">N2454S</t>
   </si>
   <si>
-    <t xml:space="preserve">T8644C</t>
-  </si>
-  <si>
     <t xml:space="preserve">T10665C</t>
   </si>
   <si>
@@ -293,66 +287,18 @@
     <t xml:space="preserve">S3884L</t>
   </si>
   <si>
-    <t xml:space="preserve">C14340T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G17551A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G1362R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18647T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1727L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C18877T</t>
-  </si>
-  <si>
     <t xml:space="preserve">C18998T</t>
   </si>
   <si>
     <t xml:space="preserve">A1844V</t>
   </si>
   <si>
-    <t xml:space="preserve">A19167G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C19274A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1936H</t>
-  </si>
-  <si>
     <t xml:space="preserve">C19390T</t>
   </si>
   <si>
     <t xml:space="preserve">P1975S</t>
   </si>
   <si>
-    <t xml:space="preserve">T19839C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G22017T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W152L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23012A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E484K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G23868T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G769V</t>
-  </si>
-  <si>
     <t xml:space="preserve">G25563T</t>
   </si>
   <si>
@@ -362,27 +308,6 @@
     <t xml:space="preserve">Q57H</t>
   </si>
   <si>
-    <t xml:space="preserve">T26604C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F28L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C27213T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orf6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28833T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S187L</t>
-  </si>
-  <si>
     <t xml:space="preserve">C28977T</t>
   </si>
   <si>
@@ -393,12 +318,6 @@
   </si>
   <si>
     <t xml:space="preserve">D377Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G29527T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q418H</t>
   </si>
 </sst>
 </file>
@@ -761,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -778,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -795,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -829,7 +748,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,12 +765,12 @@
         <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3037</v>
+        <v>913</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -863,12 +782,12 @@
         <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>913</v>
+        <v>3037</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1004,24 +923,24 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28271</v>
+        <v>3267</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3267</v>
+        <v>11288</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1038,7 +957,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11288</v>
+        <v>14120</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
@@ -1055,7 +974,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>14120</v>
+        <v>14676</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
@@ -1064,7 +983,7 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -1072,16 +991,16 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14676</v>
+        <v>21765</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -1089,7 +1008,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21765</v>
+        <v>21991</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -1106,7 +1025,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21991</v>
+        <v>23063</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
@@ -1123,7 +1042,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23063</v>
+        <v>23271</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -1140,7 +1059,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23271</v>
+        <v>23709</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
@@ -1157,7 +1076,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>23709</v>
+        <v>24506</v>
       </c>
       <c r="B26" t="s">
         <v>50</v>
@@ -1174,13 +1093,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>24506</v>
+        <v>27972</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -1191,7 +1110,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27972</v>
+        <v>28111</v>
       </c>
       <c r="B28" t="s">
         <v>54</v>
@@ -1208,13 +1127,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28111</v>
+        <v>28271</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
@@ -1276,58 +1195,58 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>28881</v>
+        <v>1059</v>
       </c>
       <c r="B33" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>28882</v>
+        <v>2110</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>28883</v>
+        <v>2189</v>
       </c>
       <c r="B35" t="s">
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1059</v>
+        <v>6954</v>
       </c>
       <c r="B36" t="s">
         <v>68</v>
@@ -1344,7 +1263,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2110</v>
+        <v>19151</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
@@ -1353,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -1361,16 +1280,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2189</v>
+        <v>22111</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -1378,13 +1297,13 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6954</v>
+        <v>28095</v>
       </c>
       <c r="B39" t="s">
         <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
         <v>74</v>
@@ -1395,13 +1314,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19151</v>
+        <v>28881</v>
       </c>
       <c r="B40" t="s">
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
@@ -1412,16 +1331,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22111</v>
+        <v>28882</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
@@ -1429,13 +1348,13 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>28095</v>
+        <v>28883</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
         <v>79</v>
@@ -1446,7 +1365,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4795</v>
+        <v>4999</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
@@ -1463,7 +1382,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4999</v>
+        <v>6441</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -1472,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -1480,16 +1399,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6441</v>
+        <v>7042</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -1497,16 +1416,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7042</v>
+        <v>7626</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -1514,16 +1433,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7626</v>
+        <v>10665</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -1531,16 +1450,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8644</v>
+        <v>11916</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -1548,16 +1467,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10665</v>
+        <v>18998</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1565,16 +1484,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11916</v>
+        <v>19390</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1582,16 +1501,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14340</v>
+        <v>25563</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -1599,16 +1518,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>17551</v>
+        <v>28977</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -1616,290 +1535,18 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>18647</v>
+        <v>29402</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>18877</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>18998</v>
-      </c>
-      <c r="B55" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>19167</v>
-      </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>19274</v>
-      </c>
-      <c r="B57" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>19390</v>
-      </c>
-      <c r="B58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>19839</v>
-      </c>
-      <c r="B59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>22017</v>
-      </c>
-      <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>23012</v>
-      </c>
-      <c r="B61" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>23868</v>
-      </c>
-      <c r="B62" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>25563</v>
-      </c>
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>26604</v>
-      </c>
-      <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>27213</v>
-      </c>
-      <c r="B65" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>28833</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>28977</v>
-      </c>
-      <c r="B67" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>29402</v>
-      </c>
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>29527</v>
-      </c>
-      <c r="B69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" t="s">
-        <v>128</v>
-      </c>
-      <c r="E69" t="n">
         <v>1</v>
       </c>
     </row>
